--- a/Baseline/IW/Baseline 01/IW-CP.xlsx
+++ b/Baseline/IW/Baseline 01/IW-CP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\GitHub\IndieWorks\Development\IW\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6934D95A-E933-4C43-A3C4-AFE00058A29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB4233-30B8-41D6-8EF7-00E7E6AFBE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -598,6 +598,9 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,6 +616,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39:K41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -849,110 +853,110 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="14.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:17" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="14.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="64">
         <v>44132</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="14.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="15.75">
       <c r="B6" s="3" t="s">
@@ -1097,24 +1101,24 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="5" t="s">
@@ -1660,7 +1664,7 @@
         <v>57</v>
       </c>
       <c r="Q34" s="46">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="14.25">
@@ -1703,10 +1707,12 @@
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
-      <c r="P36" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q36" s="21"/>
+      <c r="P36" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q36" s="47">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="2:17" ht="15.75" customHeight="1">
       <c r="B37" s="45" t="s">
@@ -1767,7 +1773,9 @@
       <c r="P39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q39" s="6"/>
+      <c r="Q39" s="46">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40" spans="2:17" ht="15.75" customHeight="1">
       <c r="B40" s="19" t="s">
@@ -1830,7 +1838,9 @@
       <c r="P42" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q42" s="30"/>
+      <c r="Q42" s="65">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1">
       <c r="B43" s="45" t="s">
